--- a/xlsx/安大略国际机场_intext.xlsx
+++ b/xlsx/安大略国际机场_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>安大略国际机场</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B0%91%E8%88%AA%E7%B5%84%E7%B9%94%E6%A9%9F%E5%A0%B4%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際民航組織機場代碼</t>
+    <t>国际民航组织机场代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%88%AA%E7%A9%BA%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%9E%E7%B4%90%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>樞紐機場</t>
+    <t>枢纽机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UPS</t>
@@ -107,9 +107,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
   </si>
   <si>
@@ -143,7 +140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>美國航空</t>
+    <t>美国航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B0%E5%AE%87%E4%B8%80%E5%AE%B6</t>
@@ -161,19 +158,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E%E5%A4%A9%E6%B8%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>鳳凰城天港國際機場</t>
+    <t>凤凰城天港国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>達美航空</t>
+    <t>达美航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%90%88%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>天合聯盟</t>
+    <t>天合联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%90%E6%B9%96%E5%9F%8E%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -203,13 +200,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96-%E5%A1%94%E7%A7%91%E9%A6%AC%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>西雅圖-塔科馬國際機場</t>
+    <t>西雅图-塔科马国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E7%96%86%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>邊疆航空</t>
+    <t>边疆航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E6%B1%80-%E4%BC%AF%E6%A0%BC%E6%96%AF%E7%89%B9%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -227,19 +224,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>丹佛國際機場</t>
+    <t>丹佛国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>聖安東尼奧國際機場</t>
+    <t>圣安东尼奥国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E6%9D%9C%E5%8B%92%E6%96%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>華盛頓杜勒斯國際機場</t>
+    <t>华盛顿杜勒斯国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -257,43 +254,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8D%A1%E5%80%AB%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>麥卡倫國際機場</t>
+    <t>麦卡伦国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>奧克蘭國際機場 (美國)</t>
+    <t>奥克兰国际机场 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>沙加緬度國際機場</t>
+    <t>沙加缅度国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%9B%BC%C2%B7%E5%B3%B0%E7%94%B0%E8%81%96%E8%8D%B7%E8%A5%BF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>諾曼·峰田聖荷西國際機場</t>
+    <t>诺曼·峰田圣荷西国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>聯合航空</t>
+    <t>联合航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E7%A9%BA%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>星空聯盟</t>
+    <t>星空联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>舊金山國際機場</t>
+    <t>旧金山国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E8%88%AA%E5%BF%AB%E8%BF%90</t>
@@ -305,25 +302,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%9C%8B%E9%9A%9B%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>墨西哥國際航空</t>
+    <t>墨西哥国际航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>中華航空</t>
+    <t>中华航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%A1%83%E5%9C%92%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>臺灣桃園國際機場</t>
+    <t>台湾桃园国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E6%8B%89%E6%96%AF%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>亞特拉斯航空</t>
+    <t>亚特拉斯航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%BF%AB%E9%80%92%E8%88%AA%E7%A9%BA</t>
@@ -1205,7 +1202,7 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1260,10 +1257,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
         <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>32</v>
       </c>
       <c r="G20" t="n">
         <v>8</v>
@@ -1289,10 +1286,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
         <v>33</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
       </c>
       <c r="G21" t="n">
         <v>15</v>
@@ -1318,10 +1315,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
         <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>36</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -1347,10 +1344,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
         <v>37</v>
-      </c>
-      <c r="F23" t="s">
-        <v>38</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1376,10 +1373,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
         <v>39</v>
-      </c>
-      <c r="F24" t="s">
-        <v>40</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1405,10 +1402,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" t="s">
         <v>41</v>
-      </c>
-      <c r="F25" t="s">
-        <v>42</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1434,10 +1431,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
         <v>43</v>
-      </c>
-      <c r="F26" t="s">
-        <v>44</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1463,10 +1460,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
         <v>45</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1492,10 +1489,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" t="s">
         <v>47</v>
-      </c>
-      <c r="F28" t="s">
-        <v>48</v>
       </c>
       <c r="G28" t="n">
         <v>5</v>
@@ -1521,10 +1518,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
         <v>49</v>
-      </c>
-      <c r="F29" t="s">
-        <v>50</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1550,10 +1547,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
         <v>51</v>
-      </c>
-      <c r="F30" t="s">
-        <v>52</v>
       </c>
       <c r="G30" t="n">
         <v>4</v>
@@ -1579,10 +1576,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
         <v>53</v>
-      </c>
-      <c r="F31" t="s">
-        <v>54</v>
       </c>
       <c r="G31" t="n">
         <v>4</v>
@@ -1608,10 +1605,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" t="s">
         <v>55</v>
-      </c>
-      <c r="F32" t="s">
-        <v>56</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1637,10 +1634,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" t="s">
         <v>57</v>
-      </c>
-      <c r="F33" t="s">
-        <v>58</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -1666,10 +1663,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" t="s">
         <v>59</v>
-      </c>
-      <c r="F34" t="s">
-        <v>60</v>
       </c>
       <c r="G34" t="n">
         <v>5</v>
@@ -1695,10 +1692,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
         <v>61</v>
-      </c>
-      <c r="F35" t="s">
-        <v>62</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1724,10 +1721,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
         <v>63</v>
-      </c>
-      <c r="F36" t="s">
-        <v>64</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1753,10 +1750,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" t="s">
         <v>65</v>
-      </c>
-      <c r="F37" t="s">
-        <v>66</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1782,10 +1779,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" t="s">
         <v>67</v>
-      </c>
-      <c r="F38" t="s">
-        <v>68</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1811,10 +1808,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" t="s">
         <v>69</v>
-      </c>
-      <c r="F39" t="s">
-        <v>70</v>
       </c>
       <c r="G39" t="n">
         <v>4</v>
@@ -1840,10 +1837,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" t="s">
         <v>71</v>
-      </c>
-      <c r="F40" t="s">
-        <v>72</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1869,10 +1866,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" t="s">
         <v>73</v>
-      </c>
-      <c r="F41" t="s">
-        <v>74</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1898,10 +1895,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" t="s">
         <v>75</v>
-      </c>
-      <c r="F42" t="s">
-        <v>76</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1927,10 +1924,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" t="s">
         <v>77</v>
-      </c>
-      <c r="F43" t="s">
-        <v>78</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1956,10 +1953,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" t="s">
         <v>79</v>
-      </c>
-      <c r="F44" t="s">
-        <v>80</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -1985,10 +1982,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" t="s">
         <v>81</v>
-      </c>
-      <c r="F45" t="s">
-        <v>82</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2014,10 +2011,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" t="s">
         <v>83</v>
-      </c>
-      <c r="F46" t="s">
-        <v>84</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2043,10 +2040,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
         <v>85</v>
-      </c>
-      <c r="F47" t="s">
-        <v>86</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2072,10 +2069,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" t="s">
         <v>87</v>
-      </c>
-      <c r="F48" t="s">
-        <v>88</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2101,10 +2098,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s">
         <v>89</v>
-      </c>
-      <c r="F49" t="s">
-        <v>90</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2130,10 +2127,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" t="s">
         <v>91</v>
-      </c>
-      <c r="F50" t="s">
-        <v>92</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2159,10 +2156,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" t="s">
         <v>93</v>
-      </c>
-      <c r="F51" t="s">
-        <v>94</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2188,10 +2185,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" t="s">
         <v>95</v>
-      </c>
-      <c r="F52" t="s">
-        <v>96</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2217,10 +2214,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" t="s">
         <v>97</v>
-      </c>
-      <c r="F53" t="s">
-        <v>98</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2246,10 +2243,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" t="s">
         <v>99</v>
-      </c>
-      <c r="F54" t="s">
-        <v>100</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2275,10 +2272,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s">
         <v>101</v>
-      </c>
-      <c r="F55" t="s">
-        <v>102</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2304,10 +2301,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" t="s">
         <v>103</v>
-      </c>
-      <c r="F56" t="s">
-        <v>104</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2333,10 +2330,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" t="s">
         <v>105</v>
-      </c>
-      <c r="F57" t="s">
-        <v>106</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2362,10 +2359,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" t="s">
         <v>107</v>
-      </c>
-      <c r="F58" t="s">
-        <v>108</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
